--- a/Data_preparation/datasets/final_data/THOMSON_REUTERS_CORP.xlsx
+++ b/Data_preparation/datasets/final_data/THOMSON_REUTERS_CORP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,114 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>CDNS</t>
-  </si>
-  <si>
-    <t>NOW</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>ROK</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -760,22 +652,22 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>19.17000007629395</v>
+        <v>32.50156583216571</v>
       </c>
       <c r="E2">
-        <v>19.46999931335449</v>
+        <v>32.94283676147461</v>
       </c>
       <c r="F2">
-        <v>21.10000038146973</v>
+        <v>34.21048527613666</v>
       </c>
       <c r="G2">
-        <v>18.63999938964844</v>
+        <v>32.26889495557401</v>
       </c>
       <c r="H2">
-        <v>55686229</v>
+        <v>450687724</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>29313968600</v>
@@ -885,22 +777,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>135.1841268565159</v>
+        <v>31.12023594651493</v>
       </c>
       <c r="E3">
-        <v>146.5059204101562</v>
+        <v>32.72195434570312</v>
       </c>
       <c r="F3">
-        <v>149.4612783851101</v>
+        <v>33.15878447514397</v>
       </c>
       <c r="G3">
-        <v>133.8800511327204</v>
+        <v>30.08478366902539</v>
       </c>
       <c r="H3">
-        <v>143182982</v>
+        <v>450687724</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>27514368457</v>
@@ -1010,22 +902,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>20.73999977111816</v>
+        <v>33.00644847681398</v>
       </c>
       <c r="E4">
-        <v>22.21999931335449</v>
+        <v>33.45501708984375</v>
       </c>
       <c r="F4">
-        <v>23.29999923706055</v>
+        <v>34.60498068382673</v>
       </c>
       <c r="G4">
-        <v>20.07999992370605</v>
+        <v>32.5334139556897</v>
       </c>
       <c r="H4">
-        <v>272490000</v>
+        <v>450687724</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>29097149305</v>
@@ -1135,22 +1027,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>84.98000335693359</v>
+        <v>30.68970386348994</v>
       </c>
       <c r="E5">
-        <v>62.20999908447266</v>
+        <v>30.76373291015625</v>
       </c>
       <c r="F5">
-        <v>85.66999816894531</v>
+        <v>30.92824425297242</v>
       </c>
       <c r="G5">
-        <v>57.66999816894531</v>
+        <v>27.93412753988001</v>
       </c>
       <c r="H5">
-        <v>207519000</v>
+        <v>450687724</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>27355367641</v>
@@ -1260,22 +1152,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>21.06878244070543</v>
+        <v>33.22819603223149</v>
       </c>
       <c r="E6">
-        <v>18.4537239074707</v>
+        <v>34.14981842041016</v>
       </c>
       <c r="F6">
-        <v>21.22490591599555</v>
+        <v>34.87217077329465</v>
       </c>
       <c r="G6">
-        <v>18.25076398515507</v>
+        <v>32.80474873228826</v>
       </c>
       <c r="H6">
-        <v>199618386</v>
+        <v>450687724</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>28101314684</v>
@@ -1385,22 +1277,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>96.04321029982444</v>
+        <v>33.837934723348</v>
       </c>
       <c r="E7">
-        <v>95.93419647216795</v>
+        <v>35.25273513793945</v>
       </c>
       <c r="F7">
-        <v>101.2592138942743</v>
+        <v>36.56707016440913</v>
       </c>
       <c r="G7">
-        <v>92.99075914643778</v>
+        <v>33.38587123025538</v>
       </c>
       <c r="H7">
-        <v>112434397</v>
+        <v>450687724</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>28059662538</v>
@@ -1510,22 +1402,22 @@
         <v>42643</v>
       </c>
       <c r="D8">
-        <v>10.08891169552178</v>
+        <v>34.77268070374505</v>
       </c>
       <c r="E8">
-        <v>10.03531837463379</v>
+        <v>33.26192474365234</v>
       </c>
       <c r="F8">
-        <v>10.24075858308116</v>
+        <v>35.23687973956959</v>
       </c>
       <c r="G8">
-        <v>9.423462821204105</v>
+        <v>33.11000489008421</v>
       </c>
       <c r="H8">
-        <v>1319450062</v>
+        <v>450687724</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>28726096878</v>
@@ -1626,22 +1518,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>45.97999954223633</v>
+        <v>37.33156166601932</v>
       </c>
       <c r="E9">
-        <v>53.06000137329102</v>
+        <v>38.15699005126953</v>
       </c>
       <c r="F9">
-        <v>53.20000076293945</v>
+        <v>38.71862421757658</v>
       </c>
       <c r="G9">
-        <v>45.61000061035156</v>
+        <v>37.16136741038282</v>
       </c>
       <c r="H9">
-        <v>50476952</v>
+        <v>450687724</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>30392182729</v>
@@ -1751,22 +1643,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>5.311937668057123</v>
+        <v>36.96005430659647</v>
       </c>
       <c r="E10">
-        <v>5.160849571228027</v>
+        <v>38.95812606811523</v>
       </c>
       <c r="F10">
-        <v>5.327841658292762</v>
+        <v>39.44692772737062</v>
       </c>
       <c r="G10">
-        <v>4.930241523220734</v>
+        <v>36.41980315713099</v>
       </c>
       <c r="H10">
-        <v>3071530678</v>
+        <v>450687724</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>28552171424</v>
@@ -1876,22 +1768,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>70.19999694824219</v>
+        <v>40.00667988757762</v>
       </c>
       <c r="E11">
-        <v>61.70000076293945</v>
+        <v>39.66097640991211</v>
       </c>
       <c r="F11">
-        <v>77.92500305175781</v>
+        <v>40.23138746555141</v>
       </c>
       <c r="G11">
-        <v>61</v>
+        <v>39.23748758607901</v>
       </c>
       <c r="H11">
-        <v>55686229</v>
+        <v>450687724</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>30573213398</v>
@@ -2001,22 +1893,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>34.39338093652559</v>
+        <v>40.00943329659836</v>
       </c>
       <c r="E12">
-        <v>33.61638259887695</v>
+        <v>40.78437042236328</v>
       </c>
       <c r="F12">
-        <v>35.08107037354011</v>
+        <v>42.32553801833105</v>
       </c>
       <c r="G12">
-        <v>32.32138309818511</v>
+        <v>39.84399724504603</v>
       </c>
       <c r="H12">
-        <v>457000000</v>
+        <v>450687724</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>30302420193</v>
@@ -2126,22 +2018,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>8.751999855041504</v>
+        <v>38.34850301876148</v>
       </c>
       <c r="E13">
-        <v>9.208000183105469</v>
+        <v>38.00625991821289</v>
       </c>
       <c r="F13">
-        <v>9.28600025177002</v>
+        <v>42.20090341401771</v>
       </c>
       <c r="G13">
-        <v>8.696000099182129</v>
+        <v>37.64647027034376</v>
       </c>
       <c r="H13">
-        <v>766266033</v>
+        <v>450687724</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>28789941068</v>
@@ -2251,22 +2143,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>35.97240561616163</v>
+        <v>34.17838512874127</v>
       </c>
       <c r="E14">
-        <v>31.91368293762207</v>
+        <v>35.60359191894531</v>
       </c>
       <c r="F14">
-        <v>36.75260893317965</v>
+        <v>35.81604550902629</v>
       </c>
       <c r="G14">
-        <v>31.53188151649943</v>
+        <v>34.03675156995863</v>
       </c>
       <c r="H14">
-        <v>5186523104</v>
+        <v>450687724</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>24890607252</v>
@@ -2364,22 +2256,22 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>22.36372947692871</v>
+        <v>35.83696122960632</v>
       </c>
       <c r="E15">
-        <v>22.87315368652344</v>
+        <v>36.98031234741211</v>
       </c>
       <c r="F15">
-        <v>25.01273536682129</v>
+        <v>38.03434100491589</v>
       </c>
       <c r="G15">
-        <v>22.00713157653809</v>
+        <v>35.72083973424731</v>
       </c>
       <c r="H15">
-        <v>60308678</v>
+        <v>450687724</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>25966087566</v>
@@ -2489,22 +2381,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>40.01662959399956</v>
+        <v>40.93739728803269</v>
       </c>
       <c r="E16">
-        <v>40.09360122680664</v>
+        <v>41.62519454956055</v>
       </c>
       <c r="F16">
-        <v>42.52247987457982</v>
+        <v>42.47377622574068</v>
       </c>
       <c r="G16">
-        <v>36.22792094161961</v>
+        <v>39.65112525219609</v>
       </c>
       <c r="H16">
-        <v>4757218036</v>
+        <v>450687724</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>29417928571</v>
@@ -2739,22 +2631,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>83.62000274658203</v>
+        <v>53.34844018674714</v>
       </c>
       <c r="E18">
-        <v>104.0299987792969</v>
+        <v>55.60538864135742</v>
       </c>
       <c r="F18">
-        <v>104.9800033569336</v>
+        <v>55.65034507609375</v>
       </c>
       <c r="G18">
-        <v>82.03099822998047</v>
+        <v>52.36833045205034</v>
       </c>
       <c r="H18">
-        <v>168459019</v>
+        <v>450687724</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>29688396670</v>
@@ -2852,22 +2744,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>14.72999954223633</v>
+        <v>58.52706907906894</v>
       </c>
       <c r="E19">
-        <v>16.79999923706055</v>
+        <v>60.73324584960938</v>
       </c>
       <c r="F19">
-        <v>18.36000061035156</v>
+        <v>64.13293287788794</v>
       </c>
       <c r="G19">
-        <v>13.96000003814697</v>
+        <v>58.201566281504</v>
       </c>
       <c r="H19">
-        <v>1435682333</v>
+        <v>450687724</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>32326250834</v>
@@ -2977,22 +2869,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>42.51583583355016</v>
+        <v>60.95915700445646</v>
       </c>
       <c r="E20">
-        <v>42.25590896606445</v>
+        <v>61.14096450805664</v>
       </c>
       <c r="F20">
-        <v>43.8557984628152</v>
+        <v>61.79546350658028</v>
       </c>
       <c r="G20">
-        <v>39.92553545962458</v>
+        <v>59.16837780517545</v>
       </c>
       <c r="H20">
-        <v>539679667</v>
+        <v>450687724</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>33539864347</v>
@@ -3090,22 +2982,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>74.30999755859375</v>
+        <v>65.42440096725305</v>
       </c>
       <c r="E21">
-        <v>78.51000213623047</v>
+        <v>73.40030670166016</v>
       </c>
       <c r="F21">
-        <v>80.26000213623047</v>
+        <v>74.27738501436652</v>
       </c>
       <c r="G21">
-        <v>70.55000305175781</v>
+        <v>65.37871588952484</v>
       </c>
       <c r="H21">
-        <v>201104117</v>
+        <v>450687724</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>35906912189</v>
@@ -3215,22 +3107,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>26.5</v>
+        <v>60.8683261867532</v>
       </c>
       <c r="E22">
-        <v>30.27000045776367</v>
+        <v>64.73342132568359</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>66.97351921304117</v>
       </c>
       <c r="G22">
-        <v>21.67000007629395</v>
+        <v>58.47215134430768</v>
       </c>
       <c r="H22">
-        <v>2085418676</v>
+        <v>450687724</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>33757604792</v>
@@ -3340,22 +3232,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>256.4700012207031</v>
+        <v>63.05701663092425</v>
       </c>
       <c r="E23">
-        <v>280.75</v>
+        <v>64.47879791259766</v>
       </c>
       <c r="F23">
-        <v>287.8299865722656</v>
+        <v>65.54975656568148</v>
       </c>
       <c r="G23">
-        <v>250.9499969482422</v>
+        <v>61.57983766155381</v>
       </c>
       <c r="H23">
-        <v>50845151</v>
+        <v>450687724</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>33727055685</v>
@@ -3465,22 +3357,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>142.1999969482422</v>
+        <v>74.38973021233218</v>
       </c>
       <c r="E24">
-        <v>135.75</v>
+        <v>72.23699951171875</v>
       </c>
       <c r="F24">
-        <v>158.7359924316406</v>
+        <v>77.71161420514916</v>
       </c>
       <c r="G24">
-        <v>133.8099975585938</v>
+        <v>71.54107460838905</v>
       </c>
       <c r="H24">
-        <v>158300823</v>
+        <v>450687724</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>39591216264</v>
@@ -3578,22 +3470,22 @@
         <v>44196</v>
       </c>
       <c r="D25">
-        <v>29.91399955749512</v>
+        <v>76.43759578898127</v>
       </c>
       <c r="E25">
-        <v>28.95000076293945</v>
+        <v>76.02738952636719</v>
       </c>
       <c r="F25">
-        <v>31.0620002746582</v>
+        <v>77.62158964312036</v>
       </c>
       <c r="G25">
-        <v>27.46199989318848</v>
+        <v>72.75508907059996</v>
       </c>
       <c r="H25">
-        <v>766266033</v>
+        <v>450687724</v>
       </c>
       <c r="I25" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>40706777240</v>
@@ -3703,22 +3595,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>529.9299926757812</v>
+        <v>82.23480186773816</v>
       </c>
       <c r="E26">
-        <v>513.469970703125</v>
+        <v>86.83358001708984</v>
       </c>
       <c r="F26">
-        <v>563.5599975585938</v>
+        <v>87.28315635977556</v>
       </c>
       <c r="G26">
-        <v>499</v>
+        <v>82.11304218171169</v>
       </c>
       <c r="H26">
-        <v>424926346</v>
+        <v>450687724</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>43532581927</v>
@@ -3828,22 +3720,22 @@
         <v>44377</v>
       </c>
       <c r="D27">
-        <v>46.47724219552952</v>
+        <v>93.5946593959798</v>
       </c>
       <c r="E27">
-        <v>48.50979995727539</v>
+        <v>99.69947052001952</v>
       </c>
       <c r="F27">
-        <v>48.75511095753174</v>
+        <v>99.9816696196051</v>
       </c>
       <c r="G27">
-        <v>45.85521015250949</v>
+        <v>92.51290654748394</v>
       </c>
       <c r="H27">
-        <v>3953196953</v>
+        <v>450687724</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>49262720000</v>
@@ -3953,22 +3845,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>138.916410444292</v>
+        <v>104.7134850100623</v>
       </c>
       <c r="E28">
-        <v>146.6503143310547</v>
+        <v>113.5867080688477</v>
       </c>
       <c r="F28">
-        <v>149.9494520691154</v>
+        <v>113.983168792034</v>
       </c>
       <c r="G28">
-        <v>135.3627448332334</v>
+        <v>102.193114180154</v>
       </c>
       <c r="H28">
-        <v>14840390000</v>
+        <v>450687724</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>54798080000</v>
@@ -4066,22 +3958,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>17.05999946594238</v>
+        <v>112.8881983413681</v>
       </c>
       <c r="E29">
-        <v>15.57999992370606</v>
+        <v>101.6836700439453</v>
       </c>
       <c r="F29">
-        <v>19.65999984741211</v>
+        <v>112.9734418216001</v>
       </c>
       <c r="G29">
-        <v>13.14000034332275</v>
+        <v>96.45552387300648</v>
       </c>
       <c r="H29">
-        <v>250599325</v>
+        <v>450687724</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>58266902000</v>
@@ -4179,22 +4071,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>151.2200012207031</v>
+        <v>103.3973992194267</v>
       </c>
       <c r="E30">
-        <v>119.3099975585938</v>
+        <v>95.10124969482422</v>
       </c>
       <c r="F30">
-        <v>161.6100006103516</v>
+        <v>104.5390737374864</v>
       </c>
       <c r="G30">
-        <v>118.879997253418</v>
+        <v>94.84437467575744</v>
       </c>
       <c r="H30">
-        <v>168459019</v>
+        <v>450687724</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>52911208246</v>
@@ -4304,22 +4196,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>3.200000047683716</v>
+        <v>98.9728622916322</v>
       </c>
       <c r="E31">
-        <v>3.930000066757202</v>
+        <v>107.3169784545898</v>
       </c>
       <c r="F31">
-        <v>4.539999961853027</v>
+        <v>108.0720564916435</v>
       </c>
       <c r="G31">
-        <v>3.109999895095825</v>
+        <v>96.83187459488266</v>
       </c>
       <c r="H31">
-        <v>448228270</v>
+        <v>450687724</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>50760691000</v>
@@ -4417,22 +4309,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>254.5</v>
+        <v>99.14982521372704</v>
       </c>
       <c r="E32">
-        <v>227.5399932861328</v>
+        <v>101.9706192016602</v>
       </c>
       <c r="F32">
-        <v>257.5</v>
+        <v>103.2370926682909</v>
       </c>
       <c r="G32">
-        <v>198.5899963378907</v>
+        <v>93.6329728413386</v>
       </c>
       <c r="H32">
-        <v>3325150886</v>
+        <v>450687724</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>49616770000</v>
@@ -4530,22 +4422,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>26.71999931335449</v>
+        <v>109.5204116287298</v>
       </c>
       <c r="E33">
-        <v>28.72999954223633</v>
+        <v>114.6067657470703</v>
       </c>
       <c r="F33">
-        <v>29.72999954223633</v>
+        <v>115.4737568003429</v>
       </c>
       <c r="G33">
-        <v>26.64999961853028</v>
+        <v>109.5204116287298</v>
       </c>
       <c r="H33">
-        <v>178998669</v>
+        <v>450687724</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>55107576891</v>
@@ -4643,22 +4535,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>261.1884929516806</v>
+        <v>125.6979779583206</v>
       </c>
       <c r="E34">
-        <v>225.4617156982422</v>
+        <v>127.197135925293</v>
       </c>
       <c r="F34">
-        <v>262.5264343168398</v>
+        <v>129.1799106580013</v>
       </c>
       <c r="G34">
-        <v>223.9783523558658</v>
+        <v>124.7404372279016</v>
       </c>
       <c r="H34">
-        <v>60498713</v>
+        <v>450687724</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>61944811393</v>
@@ -4768,22 +4660,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>18.42000007629395</v>
+        <v>130.1361101824991</v>
       </c>
       <c r="E35">
-        <v>19.04000091552734</v>
+        <v>131.1349182128906</v>
       </c>
       <c r="F35">
-        <v>19.38999938964844</v>
+        <v>131.193098906433</v>
       </c>
       <c r="G35">
-        <v>17.57999992370605</v>
+        <v>125.2390329208732</v>
       </c>
       <c r="H35">
-        <v>260676335</v>
+        <v>450687724</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>61539323788</v>
@@ -4881,22 +4773,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>62.6169871617784</v>
+        <v>118.359173386968</v>
       </c>
       <c r="E36">
-        <v>64.67326354980469</v>
+        <v>116.6850128173828</v>
       </c>
       <c r="F36">
-        <v>66.63478202323152</v>
+        <v>124.9195400464748</v>
       </c>
       <c r="G36">
-        <v>60.75970456328059</v>
+        <v>114.3295112839243</v>
       </c>
       <c r="H36">
-        <v>212968277</v>
+        <v>450687724</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>55692296000</v>
@@ -5006,22 +4898,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>1152.400024414062</v>
+        <v>141.419740521661</v>
       </c>
       <c r="E37">
-        <v>1198.829956054688</v>
+        <v>145.190673828125</v>
       </c>
       <c r="F37">
-        <v>1307.140014648438</v>
+        <v>148.9420793559621</v>
       </c>
       <c r="G37">
-        <v>1113.18994140625</v>
+        <v>139.504974747138</v>
       </c>
       <c r="H37">
-        <v>24003656</v>
+        <v>450687724</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>66601906010</v>
@@ -5131,22 +5023,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>104.6600036621094</v>
+        <v>152.5038588308085</v>
       </c>
       <c r="E38">
-        <v>92.98000335693359</v>
+        <v>148.1124420166016</v>
       </c>
       <c r="F38">
-        <v>105.0100021362305</v>
+        <v>152.7587127008474</v>
       </c>
       <c r="G38">
-        <v>90.66999816894533</v>
+        <v>146.5440713901251</v>
       </c>
       <c r="H38">
-        <v>168459019</v>
+        <v>450687724</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>70585198111</v>
@@ -5256,22 +5148,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>53.97000122070312</v>
+        <v>165.4261760174149</v>
       </c>
       <c r="E39">
-        <v>52.63999938964844</v>
+        <v>159.2308044433594</v>
       </c>
       <c r="F39">
-        <v>65.87999725341797</v>
+        <v>167.4617893171745</v>
       </c>
       <c r="G39">
-        <v>50.29000091552734</v>
+        <v>157.4213670646024</v>
       </c>
       <c r="H39">
-        <v>42689006</v>
+        <v>450687724</v>
       </c>
       <c r="I39" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>75974499000</v>
@@ -5381,22 +5273,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>36.50313191135645</v>
+        <v>168.7096486664738</v>
       </c>
       <c r="E40">
-        <v>39.63111877441406</v>
+        <v>161.4482269287109</v>
       </c>
       <c r="F40">
-        <v>41.15769383693995</v>
+        <v>168.9365638617247</v>
       </c>
       <c r="G40">
-        <v>34.26814654717644</v>
+        <v>161.3495602936897</v>
       </c>
       <c r="H40">
-        <v>171080665</v>
+        <v>450687724</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>76718820000</v>
@@ -5506,22 +5398,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>12.96000003814697</v>
+        <v>158.7058635782533</v>
       </c>
       <c r="E41">
-        <v>14.22000026702881</v>
+        <v>166.5560150146484</v>
       </c>
       <c r="F41">
-        <v>15.34500026702881</v>
+        <v>168.8328610343947</v>
       </c>
       <c r="G41">
-        <v>12.61999988555908</v>
+        <v>150.0736576094974</v>
       </c>
       <c r="H41">
-        <v>453568899</v>
+        <v>450687724</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>72131099862</v>
@@ -5631,22 +5523,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>187.8600006103516</v>
+        <v>171.6419996777651</v>
       </c>
       <c r="E42">
-        <v>184.4199981689453</v>
+        <v>184.744369506836</v>
       </c>
       <c r="F42">
-        <v>198.3399963378907</v>
+        <v>185.2013199976124</v>
       </c>
       <c r="G42">
-        <v>161.3800048828125</v>
+        <v>158.7085137299506</v>
       </c>
       <c r="H42">
-        <v>10664912097</v>
+        <v>450687724</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>77752811598</v>
@@ -5756,22 +5648,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>105.0804770925983</v>
+        <v>199.7503963180078</v>
       </c>
       <c r="E43">
-        <v>103.1780242919922</v>
+        <v>200.2187805175781</v>
       </c>
       <c r="F43">
-        <v>109.3114367486601</v>
+        <v>217.6685325614052</v>
       </c>
       <c r="G43">
-        <v>101.4440230697358</v>
+        <v>196.3321891938854</v>
       </c>
       <c r="H43">
-        <v>199618386</v>
+        <v>450687724</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>90539346504</v>
